--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jag1-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H2">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J2">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N2">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P2">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q2">
-        <v>35.76132428109875</v>
+        <v>39.81083848096045</v>
       </c>
       <c r="R2">
-        <v>35.76132428109875</v>
+        <v>358.297546328644</v>
       </c>
       <c r="S2">
-        <v>0.004860999387487724</v>
+        <v>0.005041985132530148</v>
       </c>
       <c r="T2">
-        <v>0.004860999387487724</v>
+        <v>0.005041985132530149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H3">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J3">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N3">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P3">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q3">
-        <v>409.8894401790653</v>
+        <v>428.5993569872654</v>
       </c>
       <c r="R3">
-        <v>409.8894401790653</v>
+        <v>3857.394212885388</v>
       </c>
       <c r="S3">
-        <v>0.05571584267927185</v>
+        <v>0.05428148886578385</v>
       </c>
       <c r="T3">
-        <v>0.05571584267927185</v>
+        <v>0.05428148886578385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H4">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J4">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N4">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P4">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q4">
-        <v>603.3855612005983</v>
+        <v>632.8173091878028</v>
       </c>
       <c r="R4">
-        <v>603.3855612005983</v>
+        <v>5695.355782690225</v>
       </c>
       <c r="S4">
-        <v>0.08201756792785438</v>
+        <v>0.08014539724046678</v>
       </c>
       <c r="T4">
-        <v>0.08201756792785438</v>
+        <v>0.08014539724046678</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H5">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J5">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N5">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P5">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q5">
-        <v>863.8362870713823</v>
+        <v>938.0337771941601</v>
       </c>
       <c r="R5">
-        <v>863.8362870713823</v>
+        <v>8442.303994747441</v>
       </c>
       <c r="S5">
-        <v>0.1174203625496903</v>
+        <v>0.1188006216117745</v>
       </c>
       <c r="T5">
-        <v>0.1174203625496903</v>
+        <v>0.1188006216117745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0114811187287</v>
+        <v>18.78268133333334</v>
       </c>
       <c r="H6">
-        <v>18.0114811187287</v>
+        <v>56.34804400000001</v>
       </c>
       <c r="I6">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="J6">
-        <v>0.2863302076050462</v>
+        <v>0.286679008418643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N6">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P6">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q6">
-        <v>193.5969811532436</v>
+        <v>224.3177252361143</v>
       </c>
       <c r="R6">
-        <v>193.5969811532436</v>
+        <v>2018.859527125028</v>
       </c>
       <c r="S6">
-        <v>0.02631543506074199</v>
+        <v>0.02840951556808771</v>
       </c>
       <c r="T6">
-        <v>0.02631543506074199</v>
+        <v>0.02840951556808771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H7">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J7">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N7">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P7">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q7">
-        <v>28.47375590966323</v>
+        <v>30.633742272848</v>
       </c>
       <c r="R7">
-        <v>28.47375590966323</v>
+        <v>275.703680455632</v>
       </c>
       <c r="S7">
-        <v>0.003870407844753766</v>
+        <v>0.003879719166611575</v>
       </c>
       <c r="T7">
-        <v>0.003870407844753766</v>
+        <v>0.003879719166611576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H8">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J8">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N8">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P8">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q8">
-        <v>326.3607292019619</v>
+        <v>329.799691270896</v>
       </c>
       <c r="R8">
-        <v>326.3607292019619</v>
+        <v>2968.197221438064</v>
       </c>
       <c r="S8">
-        <v>0.04436187240384939</v>
+        <v>0.04176865405374838</v>
       </c>
       <c r="T8">
-        <v>0.04436187240384939</v>
+        <v>0.04176865405374838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H9">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J9">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N9">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P9">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q9">
-        <v>480.4255304975281</v>
+        <v>486.941825270208</v>
       </c>
       <c r="R9">
-        <v>480.4255304975281</v>
+        <v>4382.476427431872</v>
       </c>
       <c r="S9">
-        <v>0.0653037396245494</v>
+        <v>0.06167047811850686</v>
       </c>
       <c r="T9">
-        <v>0.0653037396245494</v>
+        <v>0.06167047811850686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H10">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J10">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N10">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P10">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q10">
-        <v>687.8006919050425</v>
+        <v>721.8005465404799</v>
       </c>
       <c r="R10">
-        <v>687.8006919050425</v>
+        <v>6496.20491886432</v>
       </c>
       <c r="S10">
-        <v>0.09349202830923015</v>
+        <v>0.09141499559346723</v>
       </c>
       <c r="T10">
-        <v>0.09349202830923015</v>
+        <v>0.09141499559346723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.3410381817782</v>
+        <v>14.452944</v>
       </c>
       <c r="H11">
-        <v>14.3410381817782</v>
+        <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="J11">
-        <v>0.2279808313815271</v>
+        <v>0.2205944711044544</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N11">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P11">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q11">
-        <v>154.1451077950899</v>
+        <v>172.608556973776</v>
       </c>
       <c r="R11">
-        <v>154.1451077950899</v>
+        <v>1553.477012763984</v>
       </c>
       <c r="S11">
-        <v>0.02095278319914442</v>
+        <v>0.02186062417212032</v>
       </c>
       <c r="T11">
-        <v>0.02095278319914442</v>
+        <v>0.02186062417212032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H12">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J12">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N12">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P12">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q12">
-        <v>39.32972174099801</v>
+        <v>42.4428473352361</v>
       </c>
       <c r="R12">
-        <v>39.32972174099801</v>
+        <v>381.985626017125</v>
       </c>
       <c r="S12">
-        <v>0.005346047920101798</v>
+        <v>0.005375325248395635</v>
       </c>
       <c r="T12">
-        <v>0.005346047920101798</v>
+        <v>0.005375325248395638</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H13">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J13">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N13">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P13">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q13">
-        <v>450.7897274748457</v>
+        <v>456.9352912597083</v>
       </c>
       <c r="R13">
-        <v>450.7897274748457</v>
+        <v>4112.417621337375</v>
       </c>
       <c r="S13">
-        <v>0.06127537593173427</v>
+        <v>0.05787019397146344</v>
       </c>
       <c r="T13">
-        <v>0.06127537593173427</v>
+        <v>0.05787019397146345</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H14">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I14">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J14">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N14">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P14">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q14">
-        <v>663.5936085034245</v>
+        <v>674.6546787201667</v>
       </c>
       <c r="R14">
-        <v>663.5936085034245</v>
+        <v>6071.8921084815</v>
       </c>
       <c r="S14">
-        <v>0.09020158479368276</v>
+        <v>0.08544403960056757</v>
       </c>
       <c r="T14">
-        <v>0.09020158479368276</v>
+        <v>0.0854440396005676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H15">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I15">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J15">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N15">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P15">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q15">
-        <v>950.0330729712701</v>
+        <v>1000.0498838975</v>
       </c>
       <c r="R15">
-        <v>950.0330729712701</v>
+        <v>9000.448955077498</v>
       </c>
       <c r="S15">
-        <v>0.1291370014573894</v>
+        <v>0.1266548718588569</v>
       </c>
       <c r="T15">
-        <v>0.1291370014573894</v>
+        <v>0.1266548718588569</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.8087334511057</v>
+        <v>20.02445833333333</v>
       </c>
       <c r="H16">
-        <v>19.8087334511057</v>
+        <v>60.073375</v>
       </c>
       <c r="I16">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034097</v>
       </c>
       <c r="J16">
-        <v>0.3149012967928788</v>
+        <v>0.3056321809034098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N16">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P16">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q16">
-        <v>212.9148053579958</v>
+        <v>239.1480142106805</v>
       </c>
       <c r="R16">
-        <v>212.9148053579958</v>
+        <v>2152.332127896125</v>
       </c>
       <c r="S16">
-        <v>0.02894128668997058</v>
+        <v>0.03028775022412615</v>
       </c>
       <c r="T16">
-        <v>0.02894128668997058</v>
+        <v>0.03028775022412616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H17">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J17">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N17">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P17">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q17">
-        <v>10.90497378024218</v>
+        <v>14.36486591948922</v>
       </c>
       <c r="R17">
-        <v>10.90497378024218</v>
+        <v>129.283793275403</v>
       </c>
       <c r="S17">
-        <v>0.001482301674559191</v>
+        <v>0.001819289499051674</v>
       </c>
       <c r="T17">
-        <v>0.001482301674559191</v>
+        <v>0.001819289499051675</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H18">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I18">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J18">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N18">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P18">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q18">
-        <v>124.9907179839348</v>
+        <v>154.6506562338757</v>
       </c>
       <c r="R18">
-        <v>124.9907179839348</v>
+        <v>1391.855906104881</v>
       </c>
       <c r="S18">
-        <v>0.01698985750040267</v>
+        <v>0.01958628200810555</v>
       </c>
       <c r="T18">
-        <v>0.01698985750040267</v>
+        <v>0.01958628200810555</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H19">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I19">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J19">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N19">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P19">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q19">
-        <v>183.9949682105864</v>
+        <v>228.3382150406653</v>
       </c>
       <c r="R19">
-        <v>183.9949682105864</v>
+        <v>2055.043935365988</v>
       </c>
       <c r="S19">
-        <v>0.02501024348936677</v>
+        <v>0.02891870478875007</v>
       </c>
       <c r="T19">
-        <v>0.02501024348936677</v>
+        <v>0.02891870478875007</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H20">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I20">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J20">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N20">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P20">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q20">
-        <v>263.4161975347786</v>
+        <v>338.4688680644199</v>
       </c>
       <c r="R20">
-        <v>263.4161975347786</v>
+        <v>3046.21981257978</v>
       </c>
       <c r="S20">
-        <v>0.03580588808193772</v>
+        <v>0.04286659276019203</v>
       </c>
       <c r="T20">
-        <v>0.03580588808193772</v>
+        <v>0.04286659276019204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.49237852041392</v>
+        <v>6.777317666666666</v>
       </c>
       <c r="H21">
-        <v>5.49237852041392</v>
+        <v>20.331953</v>
       </c>
       <c r="I21">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="J21">
-        <v>0.0873128573729763</v>
+        <v>0.1034418182333792</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N21">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P21">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q21">
-        <v>59.03500627704653</v>
+        <v>80.9401200610901</v>
       </c>
       <c r="R21">
-        <v>59.03500627704653</v>
+        <v>728.461080549811</v>
       </c>
       <c r="S21">
-        <v>0.008024566626709946</v>
+        <v>0.01025094917727983</v>
       </c>
       <c r="T21">
-        <v>0.008024566626709946</v>
+        <v>0.01025094917727983</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H22">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I22">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J22">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.98547382335556</v>
+        <v>2.119550333333333</v>
       </c>
       <c r="N22">
-        <v>1.98547382335556</v>
+        <v>6.358651</v>
       </c>
       <c r="O22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="P22">
-        <v>0.01697690030034419</v>
+        <v>0.01758756303903228</v>
       </c>
       <c r="Q22">
-        <v>10.42561894515765</v>
+        <v>11.61674527188645</v>
       </c>
       <c r="R22">
-        <v>10.42561894515765</v>
+        <v>104.550707446978</v>
       </c>
       <c r="S22">
-        <v>0.001417143473441713</v>
+        <v>0.001471243992443243</v>
       </c>
       <c r="T22">
-        <v>0.001417143473441713</v>
+        <v>0.001471243992443244</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H23">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I23">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J23">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7571201655845</v>
+        <v>22.818859</v>
       </c>
       <c r="N23">
-        <v>22.7571201655845</v>
+        <v>68.456577</v>
       </c>
       <c r="O23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="P23">
-        <v>0.1945859752112649</v>
+        <v>0.1893458790903711</v>
       </c>
       <c r="Q23">
-        <v>119.4964448005512</v>
+        <v>125.0646744402674</v>
       </c>
       <c r="R23">
-        <v>119.4964448005512</v>
+        <v>1125.582069962406</v>
       </c>
       <c r="S23">
-        <v>0.0162430266960067</v>
+        <v>0.01583926019126986</v>
       </c>
       <c r="T23">
-        <v>0.0162430266960067</v>
+        <v>0.01583926019126986</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H24">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I24">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J24">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.5000523956459</v>
+        <v>33.691532</v>
       </c>
       <c r="N24">
-        <v>33.5000523956459</v>
+        <v>101.074596</v>
       </c>
       <c r="O24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="P24">
-        <v>0.2864439928077254</v>
+        <v>0.2795649311142757</v>
       </c>
       <c r="Q24">
-        <v>175.9070186730305</v>
+        <v>184.6551784632987</v>
       </c>
       <c r="R24">
-        <v>175.9070186730305</v>
+        <v>1661.896606169688</v>
       </c>
       <c r="S24">
-        <v>0.02391085697227208</v>
+        <v>0.02338631136598437</v>
       </c>
       <c r="T24">
-        <v>0.02391085697227208</v>
+        <v>0.02338631136598437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H25">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I25">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J25">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>47.9603138341104</v>
+        <v>49.94141999999999</v>
       </c>
       <c r="N25">
-        <v>47.9603138341104</v>
+        <v>149.82426</v>
       </c>
       <c r="O25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="P25">
-        <v>0.4100872329602604</v>
+        <v>0.4144029319310593</v>
       </c>
       <c r="Q25">
-        <v>251.8370933138536</v>
+        <v>273.71690378492</v>
       </c>
       <c r="R25">
-        <v>251.8370933138536</v>
+        <v>2463.45213406428</v>
       </c>
       <c r="S25">
-        <v>0.03423195256201286</v>
+        <v>0.03466585010676864</v>
       </c>
       <c r="T25">
-        <v>0.03423195256201286</v>
+        <v>0.03466585010676864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.25094756854451</v>
+        <v>5.480759333333334</v>
       </c>
       <c r="H26">
-        <v>5.25094756854451</v>
+        <v>16.442278</v>
       </c>
       <c r="I26">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="J26">
-        <v>0.08347480684757166</v>
+        <v>0.08365252134011374</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.7485319989558</v>
+        <v>11.94279566666667</v>
       </c>
       <c r="N26">
-        <v>10.7485319989558</v>
+        <v>35.828387</v>
       </c>
       <c r="O26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="P26">
-        <v>0.09190589872040524</v>
+        <v>0.09909869482526162</v>
       </c>
       <c r="Q26">
-        <v>56.43997796533982</v>
+        <v>65.45558881617623</v>
       </c>
       <c r="R26">
-        <v>56.43997796533982</v>
+        <v>589.100299345586</v>
       </c>
       <c r="S26">
-        <v>0.007671827143838311</v>
+        <v>0.008289855683647616</v>
       </c>
       <c r="T26">
-        <v>0.007671827143838311</v>
+        <v>0.008289855683647616</v>
       </c>
     </row>
   </sheetData>
